--- a/replication_progress.xlsx
+++ b/replication_progress.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/slopezv22_eafit_edu_co/Documents/VP/Burundi/repositorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit.sharepoint.com/sites/territorios/Projects/2025_Paper_Burundi/household_structure_burundi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4C34A2A6-27B3-44A9-ABDC-B1D4BE314430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{85076D48-165D-4BFF-92B0-6B5F98CF72AA}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{4C34A2A6-27B3-44A9-ABDC-B1D4BE314430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEA98D2C-B938-2A44-9AD8-D3E5384F8291}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4EBF3A5A-0F9A-4111-9E64-02AE4D0A299D}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="10320" windowHeight="21600" xr2:uid="{4EBF3A5A-0F9A-4111-9E64-02AE4D0A299D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -238,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -260,9 +271,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -300,7 +311,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -406,7 +417,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -548,7 +559,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,18 +569,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0DADB1-7BF7-45A2-9D9C-B3FFB9A3976A}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="94.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="4" max="4" width="94.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -583,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -597,7 +608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="4" t="s">
@@ -607,7 +618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="3" t="s">
@@ -617,7 +628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="3" t="s">
@@ -627,7 +638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
@@ -637,7 +648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
@@ -647,7 +658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="3" t="s">
@@ -657,7 +668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -671,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="4" t="s">
@@ -681,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="3" t="s">
@@ -691,7 +702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="3" t="s">
@@ -701,7 +712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="3" t="s">
@@ -711,7 +722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="3" t="s">
@@ -721,7 +732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="3" t="s">
@@ -731,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="3" t="s">
@@ -741,7 +752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="4" t="s">
@@ -751,7 +762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="3" t="s">
@@ -761,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4" t="s">
@@ -771,7 +782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
@@ -785,7 +796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="3" t="s">
@@ -795,7 +806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="3" t="s">
@@ -805,7 +816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="3" t="s">
@@ -815,7 +826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>27</v>
       </c>
@@ -829,7 +840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="3" t="s">
@@ -839,7 +850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="7" t="s">
@@ -849,7 +860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="7" t="s">
@@ -859,7 +870,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="7" t="s">
@@ -869,7 +880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="7" t="s">
@@ -879,7 +890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="7" t="s">
@@ -889,7 +900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="7" t="s">
@@ -899,7 +910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>36</v>
       </c>
@@ -910,7 +921,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>39</v>
       </c>
@@ -921,31 +932,31 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C40" s="7"/>
     </row>
   </sheetData>
@@ -963,4 +974,296 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="53729c01-e331-46af-8f84-09bea977ed00">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0b6a0b30-4523-4899-95a0-946babcdb6cb" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EAB170F55A8EC74185BD611F05A04793" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9a7766076c5b4407dfa4a29cb2dc7926">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="53729c01-e331-46af-8f84-09bea977ed00" xmlns:ns3="0b6a0b30-4523-4899-95a0-946babcdb6cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd836aff7d432d14d0dd9befd298821c" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="53729c01-e331-46af-8f84-09bea977ed00"/>
+    <xsd:import namespace="0b6a0b30-4523-4899-95a0-946babcdb6cb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="20" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="21" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="53729c01-e331-46af-8f84-09bea977ed00" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0aef40d5-b715-412d-bec7-270c58122046" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0b6a0b30-4523-4899-95a0-946babcdb6cb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{00baf980-de20-41f9-84cd-56410328c1cb}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0b6a0b30-4523-4899-95a0-946babcdb6cb">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188895E3-6138-4219-B9FC-7BB91F3671EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="53729c01-e331-46af-8f84-09bea977ed00"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0b6a0b30-4523-4899-95a0-946babcdb6cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075DD05A-31C9-4453-898F-DAE639EF0E8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8658BE2-64C8-4E65-B9AD-0825745EF2CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="53729c01-e331-46af-8f84-09bea977ed00"/>
+    <ds:schemaRef ds:uri="0b6a0b30-4523-4899-95a0-946babcdb6cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/replication_progress.xlsx
+++ b/replication_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit.sharepoint.com/sites/territorios/Projects/2025_Paper_Burundi/household_structure_burundi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{4C34A2A6-27B3-44A9-ABDC-B1D4BE314430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEA98D2C-B938-2A44-9AD8-D3E5384F8291}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{4C34A2A6-27B3-44A9-ABDC-B1D4BE314430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{708E47BF-F5B5-554C-B373-91AB1FE8D103}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="10320" windowHeight="21600" xr2:uid="{4EBF3A5A-0F9A-4111-9E64-02AE4D0A299D}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4EBF3A5A-0F9A-4111-9E64-02AE4D0A299D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -570,13 +570,13 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="94.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/replication_progress.xlsx
+++ b/replication_progress.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit.sharepoint.com/sites/territorios/Projects/2025_Paper_Burundi/household_structure_burundi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/slopezv22_eafit_edu_co/Documents/VP/Burundi/repositorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{4C34A2A6-27B3-44A9-ABDC-B1D4BE314430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{708E47BF-F5B5-554C-B373-91AB1FE8D103}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{4C34A2A6-27B3-44A9-ABDC-B1D4BE314430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C62CD0-215B-44B3-AEBE-89690967FC59}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4EBF3A5A-0F9A-4111-9E64-02AE4D0A299D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4EBF3A5A-0F9A-4111-9E64-02AE4D0A299D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>Table 1</t>
   </si>
@@ -77,27 +66,12 @@
     <t>3a_Household_Akresh-etal_July2025.do</t>
   </si>
   <si>
-    <t>Falta reescalar PCA</t>
-  </si>
-  <si>
-    <t>Listo</t>
-  </si>
-  <si>
-    <t>Falta replicar tabla cruzada</t>
-  </si>
-  <si>
     <t>Akresh_etal_20180529_individual.xlsx</t>
   </si>
   <si>
     <t>3b_Individual_Akresh-etal_July2025.do</t>
   </si>
   <si>
-    <t>Listo (verificar forma de presentar tabla)</t>
-  </si>
-  <si>
-    <t>Contiene error en numero de observaciones (Corregido)</t>
-  </si>
-  <si>
     <t>Table 8</t>
   </si>
   <si>
@@ -110,12 +84,6 @@
     <t>Table 11</t>
   </si>
   <si>
-    <t>No coinciden resultados (regresiones con samples)</t>
-  </si>
-  <si>
-    <t>No coinciden resultados  (regresiones con samples)</t>
-  </si>
-  <si>
     <t>Table2</t>
   </si>
   <si>
@@ -165,6 +133,9 @@
   </si>
   <si>
     <t>Replicando</t>
+  </si>
+  <si>
+    <t>Listo, con formato adecuado</t>
   </si>
 </sst>
 </file>
@@ -237,12 +208,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -271,9 +241,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -311,7 +281,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -417,7 +387,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -570,17 +540,17 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="94.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="94.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -594,370 +564,370 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="3" t="s">
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="3" t="s">
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="3" t="s">
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3" t="s">
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="3" t="s">
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C40" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -977,28 +947,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="53729c01-e331-46af-8f84-09bea977ed00">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="0b6a0b30-4523-4899-95a0-946babcdb6cb" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EAB170F55A8EC74185BD611F05A04793" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9a7766076c5b4407dfa4a29cb2dc7926">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="53729c01-e331-46af-8f84-09bea977ed00" xmlns:ns3="0b6a0b30-4523-4899-95a0-946babcdb6cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd836aff7d432d14d0dd9befd298821c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1222,33 +1170,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188895E3-6138-4219-B9FC-7BB91F3671EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="53729c01-e331-46af-8f84-09bea977ed00"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0b6a0b30-4523-4899-95a0-946babcdb6cb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075DD05A-31C9-4453-898F-DAE639EF0E8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="53729c01-e331-46af-8f84-09bea977ed00">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0b6a0b30-4523-4899-95a0-946babcdb6cb" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8658BE2-64C8-4E65-B9AD-0825745EF2CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1266,4 +1210,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075DD05A-31C9-4453-898F-DAE639EF0E8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188895E3-6138-4219-B9FC-7BB91F3671EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="53729c01-e331-46af-8f84-09bea977ed00"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0b6a0b30-4523-4899-95a0-946babcdb6cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/replication_progress.xlsx
+++ b/replication_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eafit-my.sharepoint.com/personal/slopezv22_eafit_edu_co/Documents/VP/Burundi/repositorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{4C34A2A6-27B3-44A9-ABDC-B1D4BE314430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1C62CD0-215B-44B3-AEBE-89690967FC59}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{4C34A2A6-27B3-44A9-ABDC-B1D4BE314430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BA0B62A-B93C-409F-A21B-05D9EA9CF9EF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4EBF3A5A-0F9A-4111-9E64-02AE4D0A299D}"/>
+    <workbookView xWindow="2130" yWindow="2130" windowWidth="15420" windowHeight="5850" xr2:uid="{4EBF3A5A-0F9A-4111-9E64-02AE4D0A299D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,6 +947,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EAB170F55A8EC74185BD611F05A04793" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9a7766076c5b4407dfa4a29cb2dc7926">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="53729c01-e331-46af-8f84-09bea977ed00" xmlns:ns3="0b6a0b30-4523-4899-95a0-946babcdb6cb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd836aff7d432d14d0dd9befd298821c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1170,15 +1179,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1193,6 +1193,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075DD05A-31C9-4453-898F-DAE639EF0E8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8658BE2-64C8-4E65-B9AD-0825745EF2CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1208,14 +1216,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{075DD05A-31C9-4453-898F-DAE639EF0E8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
